--- a/Result_Output_V1.0.xlsx
+++ b/Result_Output_V1.0.xlsx
@@ -143,8 +143,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Coordenadas" displayName="Coordenadas" ref="A1:H39" headerRowCount="1">
-  <autoFilter ref="A1:H39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Coordenadas" displayName="Coordenadas" ref="A1:H21" headerRowCount="1">
+  <autoFilter ref="A1:H21"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Name_PDF_X"/>
     <tableColumn id="2" name="WPT_X"/>
@@ -160,8 +160,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DescripcionTabular" displayName="DescripcionTabular" ref="A1:AB50" headerRowCount="1">
-  <autoFilter ref="A1:AB50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DescripcionTabular" displayName="DescripcionTabular" ref="A1:AB54" headerRowCount="1">
+  <autoFilter ref="A1:AB54"/>
   <tableColumns count="28">
     <tableColumn id="1" name="Name_PDF_X"/>
     <tableColumn id="2" name="Serial number_X"/>
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,70 +548,72 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>AGENA</t>
+          <t>BL427</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>41º32’41.3”N 003º29’19.0”E</t>
+          <t>41º31’50.7”N 002º32’47.7”E</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>AGENA</t>
+          <t>BL415</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>41º32’41.3”N 003º29’19.0”E</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>check</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
+          <t>41º24’50.6”N 002º25’19.7”E</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>WPT-COORD-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BL804</t>
+          <t>BL428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41º03’09.8”N 001º53’36.1”E</t>
+          <t>41º24’22.3”N 002º37’15.8”E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BL814</t>
+          <t>BL419</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41º30’38.9”N 001º21’13.8”E</t>
+          <t>41º26’29.0”N 002º30’11.0”E</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -626,32 +628,32 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>BL805</t>
+          <t>BL431</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40º59’43.4”N 002º02’53.9”E</t>
+          <t>41º30’11.5”N 002º27’56.8”E</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>BL815</t>
+          <t>BL423</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41º22’34.5”N 001º40’47.9”E</t>
+          <t>41º28’07.3”N 002º35’02.7”E</t>
         </is>
       </c>
       <c r="G4" s="2" t="b">
@@ -666,32 +668,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BL806</t>
+          <t>BL432</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>41º03’19.0”N 001º31’26.0”E</t>
+          <t>41º22’43.1”N 002º32’25.5”E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BL816</t>
+          <t>BL427</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>41º31’25.1”N 001º39’24.7”E</t>
+          <t>41º31’50.7”N 002º32’47.7”E</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -706,32 +708,32 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BL807</t>
+          <t>BL435</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40º57’16.5”N 001º33’51.0”E</t>
+          <t>41º28’32.2”N 002º23’06.0”E</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>BL817</t>
+          <t>BL428</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41º14’18.4”N 001º31’09.7”E</t>
+          <t>41º24’22.3”N 002º37’15.8”E</t>
         </is>
       </c>
       <c r="G6" s="2" t="b">
@@ -746,32 +748,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BL808</t>
+          <t>BL436</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40º50’49.2”N 001º06’31.3”E</t>
+          <t>41º21’03.9”N 002º27’35.2”E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BL818</t>
+          <t>BL431</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>41º10’11.2”N 001º13’26.0”E</t>
+          <t>41º30’11.5”N 002º27’56.8”E</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -786,32 +788,32 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>BL809</t>
+          <t>BL439</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40º56’04.1”N 001º57’08.5”E</t>
+          <t>41º26’53.0”N 002º18’15.3”E</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>BL819</t>
+          <t>BL432</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41º04’21.0”N 000º48’42.5”E</t>
+          <t>41º22’43.1”N 002º32’25.5”E</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -826,32 +828,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BL810</t>
+          <t>BL440</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>40º46’10.5”N 002º13’57.6”E</t>
+          <t>41º19’24.6”N 002º22’45.1”E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BL824</t>
+          <t>BL435</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>41º20’56.6”N 002º02’45.7”E</t>
+          <t>41º28’32.2”N 002º23’06.0”E</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -866,32 +868,32 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BL811</t>
+          <t>BL443</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40º51’38.7”N 002º17’58.6”E</t>
+          <t>41º31’26.3”N 002º15’30.4”E</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>BL825</t>
+          <t>BL436</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41º12’51.2”N 002º04’58.2”E</t>
+          <t>41º21’03.9”N 002º27’35.2”E</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -906,32 +908,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BL812</t>
+          <t>BL444</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40º56’08.2”N 002º16’37.0”E</t>
+          <t>41º14’51.2”N 002º25’29.1”E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BL826</t>
+          <t>BL439</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>41º08’47.9”N 002º33’31.9”E</t>
+          <t>41º26’53.0”N 002º18’15.3”E</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -946,32 +948,32 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>BL813</t>
+          <t>BL449</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41º06’33.9”N 003º00’27.6”E</t>
+          <t>41º34’17.6”N 002º21’36.8”E</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>BL827</t>
+          <t>BL440</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41º07’48.0”N 002º45’43.6”E</t>
+          <t>41º19’24.6”N 002º22’45.1”E</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -986,32 +988,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BL814</t>
+          <t>BL450</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>41º30’38.9”N 001º21’13.8”E</t>
+          <t>41º15’04.7”N 002º32’38.2”E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BL831</t>
+          <t>BL443</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41º13’37.7”N 001º52’30.6”E</t>
+          <t>41º31’26.3”N 002º15’30.4”E</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -1026,32 +1028,32 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>BL816</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41º31’25.1”N 001º39’24.7”E</t>
+          <t>41º38’24.0”N 002º38’04.2”E</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>DALIN</t>
+          <t>BL444</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41º44’01.6”N 003º21’28.4”E</t>
+          <t>41º14’51.2”N 002º25’29.1”E</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1066,32 +1068,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BL827</t>
+          <t>LESBA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>41º07’48.0”N 002º45’43.6”E</t>
+          <t>41º15’17.7”N 002º39’45.5”E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DIPES</t>
+          <t>BL449</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>41º03’46.6”N 003º32’24.2”E</t>
+          <t>41º34’17.6”N 002º21’36.8”E</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1106,32 +1108,32 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>BL828</t>
+          <t>RULOS</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41º09’54.9”N 001º53’32.5”E</t>
+          <t>41º10’38.2”N 002º16’53.3”E</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>DUNES</t>
+          <t>BL450</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40º51’49.5”N 003º09’27.2”E</t>
+          <t>41º15’04.7”N 002º32’38.2”E</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1146,32 +1148,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BL829</t>
+          <t>SLL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>41º08’39.3”N 001º48’24.9”E</t>
+          <t>41º31’12.0”N 002º06’35.1”E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DUQQI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>41º12’38.3”N 001º42’21.0”E</t>
+          <t>41º38’24.0”N 002º38’04.2”E</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1186,32 +1188,32 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>BL830</t>
+          <t>SOTIL</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41º05’48.7”N 001º49’40.1”E</t>
+          <t>41º21’31.8”N 002º17’54.9”E</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>GRAUS</t>
+          <t>LESBA</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41º58’44.5”N 000º22’35.2”E</t>
+          <t>41º15’17.7”N 002º39’45.5”E</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1224,784 +1226,94 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BL831</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>41º13’37.7”N 001º52’30.6”E</t>
-        </is>
+      <c r="A19" t="n">
+        <v/>
+      </c>
+      <c r="B19" t="n">
+        <v/>
+      </c>
+      <c r="C19" t="n">
+        <v/>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LARPA</t>
+          <t>RULOS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>40º37’35.8”N 002º20’55.1”E</t>
+          <t>41º10’38.2”N 002º16’53.3”E</t>
         </is>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>BL832</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>41º25’49.5”N 001º43’32.7”E</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v/>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>LOBAR</t>
+          <t>SLL</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>41º44’52.8”N 000º19’06.4”E</t>
+          <t>41º31’12.0”N 002º06’35.1”E</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
+      <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BL836</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>40º58’03.4”N 001º09’05.5”E</t>
-        </is>
+      <c r="A21" t="n">
+        <v/>
+      </c>
+      <c r="B21" t="n">
+        <v/>
+      </c>
+      <c r="C21" t="n">
+        <v/>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LOTOS</t>
+          <t>TEBLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>40º32’58.9”N 001º00’10.7”E</t>
+          <t>41º22’52.2”N 002º19’30.4”E</t>
         </is>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>DALIN</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>41º44’01.6”N 003º21’28.4”E</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>LRD</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>41º33’10.5”N 000º38’52.9”E</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DIPES</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>41º03’46.6”N 003º32’24.2”E</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MOPAS</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>42º26’07.3”N 001º02’03.7”E</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>DUNES</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>40º51’49.5”N 003º09’27.2”E</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>NATPI</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>42º43’26.0”N 001º14’08.9”E</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DUQQI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>41º12’38.3”N 001º42’21.0”E</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NITBA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>41º04’18.0”N 001º59’08.4”E</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>GAVMA</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>41º15’56.6”N 001º59’14.1”E</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>OLOXO</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>42º26’06.8”N 001º30’45.9”E</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>GRAUS</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>41º58’44.5”N 000º22’35.2”E</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SENIA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>40º52’07.5”N 000º44’19.6”E</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>LARPA</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>40º37’35.8”N 002º20’55.1”E</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>VIBOK</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>41º32’48.7”N 001º30’06.7”E</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LOBAR</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>41º44’52.8”N 000º19’06.4”E</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>VLA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>41º20’33.4”N 001º32’52.4”E</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>LOTOS</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>40º32’58.9”N 001º00’10.7”E</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>LRD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>41º33’10.5”N 000º38’52.9”E</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
-      <c r="E31" t="n">
-        <v/>
-      </c>
-      <c r="F31" t="n">
-        <v/>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>MAMUK</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>41º50’12.3”N 002º04’19.5”E</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MOPAS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>42º26’07.3”N 001º02’03.7”E</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v/>
-      </c>
-      <c r="E33" t="n">
-        <v/>
-      </c>
-      <c r="F33" t="n">
-        <v/>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>NATPI</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>42º43’26.0”N 001º14’08.9”E</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NITBA</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>41º04’18.0”N 001º59’08.4”E</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v/>
-      </c>
-      <c r="E35" t="n">
-        <v/>
-      </c>
-      <c r="F35" t="n">
-        <v/>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>OLOXO</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>42º26’06.8”N 001º30’45.9”E</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>REBUL</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>41º41’52.5”N 001º06’48.5”E</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v/>
-      </c>
-      <c r="E37" t="n">
-        <v/>
-      </c>
-      <c r="F37" t="n">
-        <v/>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SENIA</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>40º52’07.5”N 000º44’19.6”E</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>VIBOK</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>41º32’48.7”N 001º30’06.7”E</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v/>
-      </c>
-      <c r="E39" t="n">
-        <v/>
-      </c>
-      <c r="F39" t="n">
-        <v/>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>WPT-COORD-</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2017,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2200,158 +1512,74 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>GAVMA</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>244 (245.5)</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>+3500</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>CLE2L RNAV1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>DUQQI</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>261 (262.7)</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>CLE2W RNAV1</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr"/>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+      <c r="X2" s="2" t="inlineStr"/>
+      <c r="Y2" s="2" t="inlineStr"/>
+      <c r="Z2" s="2" t="inlineStr"/>
       <c r="AA2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AB2" s="2" t="inlineStr">
         <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Distance-Altitude-</t>
+          <t>Serial number-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BL828</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2361,7 +1589,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>214 (215.5)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2371,7 +1599,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2381,7 +1609,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+FL080</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2401,43 +1629,85 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>+6400</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+          <t>+FL080</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -2447,7 +1717,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>NITBA</t>
+          <t>BL449</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -2457,7 +1727,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>142 (143.0)</t>
+          <t>251 (251.7)</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2467,7 +1737,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -2482,7 +1752,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-220</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -2497,12 +1767,12 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>002</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -2512,7 +1782,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>BL815</t>
+          <t>BL449</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
@@ -2522,7 +1792,7 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>352 (353.3)</t>
+          <t>251 (251.7)</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -2532,7 +1802,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -2560,164 +1830,72 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="2" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Course/Track-Distance-Speed-</t>
-        </is>
-      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BL805</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>147 (148.1)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>-FL080</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>BL824</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>094 (095.5)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>+FL100</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+          <t>-FL080</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -2727,7 +1905,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>BL811</t>
+          <t>BL443</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -2737,7 +1915,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>124 (125.2)</t>
+          <t>237 (238.1)</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2747,7 +1925,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2755,14 +1933,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>+FL100</t>
-        </is>
-      </c>
+      <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-220</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -2777,14 +1951,10 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>TF</t>
@@ -2792,7 +1962,7 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>BL826</t>
+          <t>BL443</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
@@ -2802,7 +1972,7 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>116 (117.4)</t>
+          <t>237 (238.1)</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
@@ -2812,7 +1982,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
@@ -2820,14 +1990,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="W6" s="2" t="inlineStr"/>
       <c r="X6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-220</t>
         </is>
       </c>
       <c r="Y6" s="2" t="inlineStr">
@@ -2845,159 +2011,75 @@
       </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
-          <t>Waypoint identifier-Course/Track-Distance-Altitude-</t>
+          <t>Serial number-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BL827</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>051 (052.3)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>26.5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>+FL160</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>+5000</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>BL827</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>095 (096.1)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>+FL160</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>+5000</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="b">
         <v>1</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Course/Track-Distance-</t>
+          <t>Serial number-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -3007,7 +2089,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>AGENA</t>
+          <t>BL439</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -3017,7 +2099,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>051 (052.6)</t>
+          <t>154 (155.6)</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3027,7 +2109,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -3057,12 +2139,12 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>004</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -3072,7 +2154,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>AGENA</t>
+          <t>BL439</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
@@ -3082,7 +2164,7 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>051 (052.6)</t>
+          <t>154 (155.6)</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
@@ -3092,7 +2174,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
@@ -3130,147 +2212,363 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DALIN3P RNAV1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BL435</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>DALIN5D RNAV1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>BL435</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 14.5% hasta GAVMA // Minimum climb gradient 14.5% up to GAVMA.</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>BL431</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 6.1% hasta DUQQI. // Minimum climb gradient 6.1% up to DUQQI.</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
-      <c r="W10" s="2" t="inlineStr"/>
-      <c r="X10" s="2" t="inlineStr"/>
-      <c r="Y10" s="2" t="inlineStr"/>
-      <c r="Z10" s="2" t="inlineStr"/>
-      <c r="AA10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>BL431</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z10" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA10" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 3.5% desde GAVMA hasta BL812 // Minimum climb gradient 3.5% from GAVMA up to BL812.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BL427</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>007</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>BL831</t>
+          <t>BL427</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -3280,7 +2578,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>244 (245.6)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -3290,7 +2588,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -3318,222 +2616,222 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Pendientes debidas a motivos operacionales. // Gradients due to operational reasons.</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>BL427</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>+4000</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr"/>
-      <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>BL427</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>-FL090</t>
-        </is>
-      </c>
-      <c r="X12" s="2" t="inlineStr"/>
-      <c r="Y12" s="2" t="inlineStr"/>
-      <c r="Z12" s="2" t="inlineStr"/>
-      <c r="AA12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Altitude-</t>
-        </is>
-      </c>
+          <t>+4000</t>
+        </is>
+      </c>
+      <c r="X12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z12" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA12" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GAVMA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>244 (245.5)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>+3500</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>LESBA2L RNAV1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>DUQQI</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>261 (262.7)</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LESBA2W RNAV1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="b">
         <v>1</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Distance-Altitude-</t>
+          <t>Serial number-</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>BL828</t>
+          <t>LESBA</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -3543,7 +2841,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>214 (215.5)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3553,7 +2851,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -3583,43 +2881,85 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr"/>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>LESBA</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>+6400</t>
-        </is>
-      </c>
-      <c r="X14" s="2" t="inlineStr"/>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr"/>
-      <c r="AA14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z14" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA14" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3629,7 +2969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NITBA</t>
+          <t>BL450</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,7 +2979,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>142 (143.0)</t>
+          <t>267 (267.7)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3649,7 +2989,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3664,7 +3004,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-220</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3679,12 +3019,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>002</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3694,7 +3034,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>BL815</t>
+          <t>BL450</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3704,7 +3044,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>352 (353.3)</t>
+          <t>267 (267.7)</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3714,7 +3054,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3742,24 +3082,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Course/Track-Distance-Speed-</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -3769,7 +3107,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>BL805</t>
+          <t>BL444</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -3779,7 +3117,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>147 (148.1)</t>
+          <t>266 (267.6)</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -3799,12 +3137,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-FL080</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-220</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -3819,12 +3157,12 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>003</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -3834,7 +3172,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>BL824</t>
+          <t>BL444</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
@@ -3844,7 +3182,7 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>094 (095.5)</t>
+          <t>266 (267.6)</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
@@ -3854,7 +3192,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -3864,12 +3202,12 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>+FL100</t>
+          <t>-FL080</t>
         </is>
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-220</t>
         </is>
       </c>
       <c r="Y16" s="2" t="inlineStr">
@@ -3882,24 +3220,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA16" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3909,7 +3245,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BL812</t>
+          <t>BL440</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3919,7 +3255,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>108 (109.0)</t>
+          <t>334 (335.7)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3929,7 +3265,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3939,7 +3275,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>+FL100</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3959,12 +3295,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>004</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3974,7 +3310,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>BL826</t>
+          <t>BL440</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3984,7 +3320,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>116 (117.4)</t>
+          <t>334 (335.7)</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3994,7 +3330,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -4022,24 +3358,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -4049,7 +3383,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>DALIN</t>
+          <t>BL436</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -4059,7 +3393,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>044 (045.2)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4069,7 +3403,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -4099,12 +3433,12 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>005</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
@@ -4114,7 +3448,7 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>DALIN</t>
+          <t>BL436</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
@@ -4124,7 +3458,7 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>044 (045.4)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
@@ -4134,7 +3468,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
@@ -4162,159 +3496,373 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="2" t="inlineStr">
-        <is>
-          <t>Course/Track-Distance-</t>
-        </is>
-      </c>
+      <c r="AA18" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DIPES1P RNAV1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BL432</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>DIPES1D RNAV1</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>BL432</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 14.5% hasta GAVMA, debida a motivos operacionales. //</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>BL428</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 6.1% hasta DUQQI. // Minimum climb gradient 6.1% up to DUQQI.</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr"/>
-      <c r="X20" s="2" t="inlineStr"/>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
-      <c r="AA20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>BL428</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z20" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA20" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Minimum climb gradient 14.5% up to GAVMA, due to operational reasons.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BL428</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>+4000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>008</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>FM</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>BL831</t>
+          <t>BL428</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4324,7 +3872,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>244 (245.6)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -4344,7 +3892,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+4000</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4362,87 +3910,45 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>GAVMA</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>244 (245.5)</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>+3500</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>RULOS2L RNAV1</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>RULOS2W RNAV1</t>
+        </is>
+      </c>
       <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
@@ -4450,11 +3956,7 @@
       <c r="T22" s="2" t="inlineStr"/>
       <c r="U22" s="2" t="inlineStr"/>
       <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>-FL090</t>
-        </is>
-      </c>
+      <c r="W22" s="2" t="inlineStr"/>
       <c r="X22" s="2" t="inlineStr"/>
       <c r="Y22" s="2" t="inlineStr"/>
       <c r="Z22" s="2" t="inlineStr"/>
@@ -4463,29 +3965,29 @@
       </c>
       <c r="AB22" s="2" t="inlineStr">
         <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
+          <t>Serial number-</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BL828</t>
+          <t>RULOS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4495,7 +3997,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>214 (215.5)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4505,7 +4007,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4535,22 +4037,22 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>DUQQI</t>
+          <t>RULOS</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4560,7 +4062,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>261 (262.7)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4570,7 +4072,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4578,7 +4080,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr">
         <is>
           <t>-</t>
@@ -4594,24 +4100,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -4621,7 +4125,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>NITBA</t>
+          <t>BL444</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -4631,7 +4135,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>142 (143.0)</t>
+          <t>056 (057.0)</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -4641,7 +4145,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -4651,7 +4155,7 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-FL080</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -4671,43 +4175,85 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>BL444</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>056 (057.0)</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>+6400</t>
-        </is>
-      </c>
-      <c r="X24" s="2" t="inlineStr"/>
-      <c r="Y24" s="2" t="inlineStr"/>
-      <c r="Z24" s="2" t="inlineStr"/>
-      <c r="AA24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+          <t>-FL080</t>
+        </is>
+      </c>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
+          <t>-220</t>
+        </is>
+      </c>
+      <c r="Y24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z24" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA24" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4717,7 +4263,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BL805</t>
+          <t>BL440</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4727,7 +4273,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>147 (148.1)</t>
+          <t>334 (335.7)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4737,7 +4283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4767,7 +4313,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4782,7 +4328,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>BL815</t>
+          <t>BL440</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -4792,7 +4338,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>352 (353.3)</t>
+          <t>334 (335.7)</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -4802,7 +4348,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4830,24 +4376,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-</t>
-        </is>
-      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -4857,7 +4401,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>BL811</t>
+          <t>BL436</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -4867,7 +4411,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>124 (125.2)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -4877,7 +4421,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -4887,7 +4431,7 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>+FL100</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -4907,7 +4451,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
@@ -4922,7 +4466,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>BL824</t>
+          <t>BL436</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
@@ -4932,7 +4476,7 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>094 (095.5)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
@@ -4942,7 +4486,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
@@ -4952,7 +4496,7 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>+FL100</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X26" s="2" t="inlineStr">
@@ -4970,24 +4514,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-</t>
-        </is>
-      </c>
+      <c r="AA26" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4997,7 +4539,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BL813</t>
+          <t>BL432</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5007,7 +4549,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>064 (064.9)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5017,7 +4559,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5027,7 +4569,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>+FL160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5047,7 +4589,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5062,7 +4604,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>BL826</t>
+          <t>BL432</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5072,7 +4614,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>116 (117.4)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -5082,7 +4624,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -5110,24 +4652,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -5137,7 +4677,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>DIPES</t>
+          <t>BL428</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -5147,7 +4687,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>095 (096.4)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -5157,7 +4697,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -5187,7 +4727,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
@@ -5202,7 +4742,7 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>BL827</t>
+          <t>BL428</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
@@ -5212,7 +4752,7 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>095 (096.1)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
@@ -5222,7 +4762,7 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
@@ -5232,7 +4772,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>+FL160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X28" s="2" t="inlineStr">
@@ -5250,40 +4790,82 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA28" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DUNES4P RNAV1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BL428</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>+4000</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5293,12 +4875,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>FM</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>DIPES</t>
+          <t>BL428</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -5308,7 +4890,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>095 (096.2)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -5318,7 +4900,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5328,7 +4910,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+4000</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5346,24 +4928,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 14.5% hasta GAVMA, debida a motivos operacionales. //</t>
+          <t>SLL2L RNAV1</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -5379,12 +4959,12 @@
       <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>DUNES5D RNAV1</t>
+          <t>SLL2W RNAV1</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr"/>
@@ -5410,206 +4990,198 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Minimum climb gradient 14.5% up to GAVMA, due to operational reasons.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>+6000</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 6.1% hasta DUQQI. // Minimum climb gradient 6.1% up to DUQQI.</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>+6000</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>GAVMA</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>244 (245.5)</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>+3500</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>-FL080</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>BL831</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>244 (245.6)</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y32" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z32" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="2" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Fly-over-Course/Track-Altitude-</t>
-        </is>
-      </c>
+          <t>-FL080</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr"/>
+      <c r="Y32" s="2" t="inlineStr"/>
+      <c r="Z32" s="2" t="inlineStr"/>
+      <c r="AA32" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>TF</t>
@@ -5617,7 +5189,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BL828</t>
+          <t>BL443</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5627,7 +5199,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>214 (215.5)</t>
+          <t>087 (087.9)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5637,7 +5209,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5645,14 +5217,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-220</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5667,103 +5235,97 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>-FL090</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>BL443</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>087 (087.9)</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>-220</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>BL804</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>178 (179.6)</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>+5000</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
@@ -5771,75 +5333,37 @@
           <t>002</t>
         </is>
       </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>DUQQI</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>261 (262.7)</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W34" s="2" t="inlineStr"/>
-      <c r="X34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y34" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z34" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>+5000</t>
+        </is>
+      </c>
+      <c r="X34" s="2" t="inlineStr"/>
+      <c r="Y34" s="2" t="inlineStr"/>
+      <c r="Z34" s="2" t="inlineStr"/>
+      <c r="AA34" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5849,7 +5373,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BL809</t>
+          <t>BL439</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5859,7 +5383,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>158 (159.3)</t>
+          <t>154 (155.6)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5869,7 +5393,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5899,43 +5423,85 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>BL439</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>154 (155.6)</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>+6400</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -5945,7 +5511,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>BL810</t>
+          <t>BL435</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -5955,7 +5521,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>126 (127.7)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -5965,7 +5531,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -5975,7 +5541,7 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>+FL100</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -5995,12 +5561,12 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>004</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
@@ -6010,7 +5576,7 @@
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>BL815</t>
+          <t>BL435</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
@@ -6020,7 +5586,7 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>352 (353.3)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
@@ -6030,7 +5596,7 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
@@ -6058,24 +5624,22 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA36" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6085,7 +5649,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DUNES</t>
+          <t>BL431</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6095,7 +5659,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>081 (082.1)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6105,7 +5669,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6135,12 +5699,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>005</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -6150,7 +5714,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>BL824</t>
+          <t>BL431</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -6160,7 +5724,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>094 (095.5)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -6170,7 +5734,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -6180,7 +5744,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>+FL100</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -6198,45 +5762,87 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>Serial number-Waypoint identifier-Course/Track-Distance-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>DUQQI1P RNAV1</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>BL427</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
@@ -6246,7 +5852,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>BL826</t>
+          <t>BL427</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
@@ -6256,7 +5862,7 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>116 (117.4)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
@@ -6266,7 +5872,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
@@ -6294,55 +5900,97 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="AA38" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pendiente mínima de ascenso 14.5% hasta GAVMA // Minimum climb gradient 14.5% up to GAVMA.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BL427</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>064 (065.6)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>+4000</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>FM</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>DUNES</t>
+          <t>BL427</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -6352,7 +6000,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>121 (121.8)</t>
+          <t>064 (065.6)</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -6362,7 +6010,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -6372,7 +6020,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+4000</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -6390,30 +6038,28 @@
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Pendiente mínima de ascenso 7.4% desde GAVMA hasta BL831 // Minimum climb gradient 7.4% from GAVMA up to BL831.</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>CIRCUITOS DE ESPERA // HOLDING PATTERN</t>
+        </is>
+      </c>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
@@ -6423,18 +6069,18 @@
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>GRAUS8D RNAV1</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr"/>
       <c r="Q40" s="2" t="inlineStr"/>
       <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>CIRCUITOS DE ESPERA // HOLDING PATTERN</t>
+        </is>
+      </c>
       <c r="T40" s="2" t="inlineStr"/>
       <c r="U40" s="2" t="inlineStr"/>
       <c r="V40" s="2" t="inlineStr"/>
@@ -6442,27 +6088,25 @@
       <c r="X40" s="2" t="inlineStr"/>
       <c r="Y40" s="2" t="inlineStr"/>
       <c r="Z40" s="2" t="inlineStr"/>
-      <c r="AA40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+      <c r="AA40" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pendientes debidas a motivos operacionales. // Gradients due to operational reasons.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Identificador</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -6475,15 +6119,15 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Pendiente mínima de ascenso 6.1% hasta DUQQI. // Minimum climb gradient 6.1% up to DUQQI.</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Identificador</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -6494,228 +6138,132 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>Serial number-</t>
-        </is>
-      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>GAVMA</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>244 (245.5)</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Variación</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>+3500</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Dirección de</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>RNAV1</t>
+          <t>Especificación</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O42" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>BL831</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>244 (245.6)</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Variación</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Dirección de</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr"/>
+      <c r="X42" s="2" t="inlineStr"/>
+      <c r="Y42" s="2" t="inlineStr"/>
       <c r="Z42" s="2" t="inlineStr">
         <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="2" t="inlineStr">
-        <is>
-          <t>Waypoint identifier-Fly-over-Course/Track-Altitude-</t>
-        </is>
-      </c>
+          <t>Especificación</t>
+        </is>
+      </c>
+      <c r="AA42" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>Descriptor de</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>BL831</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>244 (245.5)</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>de punto de</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>+6000</t>
+          <t>Altitud MNM</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Altitud MAX</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
+          <t>Velocidad</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Descriptor de</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>de punto de</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -6724,186 +6272,154 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>-FL090</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+          <t>Altitud MNM</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Altitud MAX</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Velocidad</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>Serial number-Path Terminator-Waypoint identifier-Fly-over-Course/Track-Magnetic variation-Distance-Turn direction-Altitude-Speed-VPA/TCH-Navegation specification-</t>
-        </is>
-      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr"/>
+      <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>DUQQI</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Sobrevuelo</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>261 (262.7)</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
+          <t>magnética</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>viraje</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>RNAV1</t>
+          <t>de navegación</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>DUQQI</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Sobrevuelo</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>261 (262.7)</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
+          <t>magnética</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr"/>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>viraje</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr"/>
-      <c r="X44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y44" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="X44" s="2" t="inlineStr"/>
+      <c r="Y44" s="2" t="inlineStr"/>
       <c r="Z44" s="2" t="inlineStr">
         <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="2" t="inlineStr">
-        <is>
-          <t>Serial number-Altitude-</t>
-        </is>
-      </c>
+          <t>de navegación</t>
+        </is>
+      </c>
+      <c r="AA44" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_11_en</t>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>IRAC AMDT 03/23                                                                                                                                                  AIS-ESPAÑA</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>trayectoria</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>recorrido</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>MNM altitude</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>MAX Altitude</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>trayectoria</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>recorrido</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -6912,526 +6428,814 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>+6400</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+          <t>MNM altitude</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>MAX Altitude</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>Serial number-Altitude-</t>
-        </is>
-      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v/>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr"/>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Fly-over</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Magnetic</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>Navegation</t>
+        </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>VLA</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Fly-over</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>317 (318.0)</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
+          <t>Magnetic</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr"/>
+      <c r="X46" s="2" t="inlineStr"/>
+      <c r="Y46" s="2" t="inlineStr"/>
+      <c r="Z46" s="2" t="inlineStr">
+        <is>
+          <t>Navegation</t>
+        </is>
+      </c>
+      <c r="AA46" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Path Terminator</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Waypoint</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>(ft)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>(ft)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>(kt)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Path Terminator</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Waypoint</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>(ft)</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>(ft)</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>(kt)</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr"/>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>variation</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>specification</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>variation</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr"/>
+      <c r="X48" s="2" t="inlineStr"/>
+      <c r="Y48" s="2" t="inlineStr"/>
+      <c r="Z48" s="2" t="inlineStr">
+        <is>
+          <t>specification</t>
+        </is>
+      </c>
+      <c r="AA48" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>-1.2</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>10.7</t>
-        </is>
-      </c>
-      <c r="V46" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W46" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X46" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y46" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z46" s="2" t="inlineStr">
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>FL080</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
         <is>
           <t>RNAV1</t>
         </is>
       </c>
-      <c r="AA46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="2" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v/>
-      </c>
-      <c r="B47" t="n">
-        <v/>
-      </c>
-      <c r="C47" t="n">
-        <v/>
-      </c>
-      <c r="D47" t="n">
-        <v/>
-      </c>
-      <c r="E47" t="n">
-        <v/>
-      </c>
-      <c r="F47" t="n">
-        <v/>
-      </c>
-      <c r="G47" t="n">
-        <v/>
-      </c>
-      <c r="H47" t="n">
-        <v/>
-      </c>
-      <c r="I47" t="n">
-        <v/>
-      </c>
-      <c r="J47" t="n">
-        <v/>
-      </c>
-      <c r="K47" t="n">
-        <v/>
-      </c>
-      <c r="L47" t="n">
-        <v/>
-      </c>
-      <c r="M47" t="n">
-        <v/>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>BL814</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>318 (319.1)</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
         <is>
           <t>-1.2</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v/>
-      </c>
-      <c r="N48" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>LRD</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>274 (274.8)</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="V48" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W48" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X48" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y48" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z48" s="2" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="2" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v/>
-      </c>
-      <c r="B49" t="n">
-        <v/>
-      </c>
-      <c r="C49" t="n">
-        <v/>
-      </c>
-      <c r="D49" t="n">
-        <v/>
-      </c>
-      <c r="E49" t="n">
-        <v/>
-      </c>
-      <c r="F49" t="n">
-        <v/>
-      </c>
-      <c r="G49" t="n">
-        <v/>
-      </c>
-      <c r="H49" t="n">
-        <v/>
-      </c>
-      <c r="I49" t="n">
-        <v/>
-      </c>
-      <c r="J49" t="n">
-        <v/>
-      </c>
-      <c r="K49" t="n">
-        <v/>
-      </c>
-      <c r="L49" t="n">
-        <v/>
-      </c>
-      <c r="M49" t="n">
-        <v/>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>GRAUS</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>333 (334.6)</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>28.3</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>+FL110</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>RNAV1</t>
-        </is>
-      </c>
-      <c r="AA49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v/>
-      </c>
-      <c r="N50" s="2" t="inlineStr">
-        <is>
-          <t>LE_AD_2_LEBL_SID_12_en</t>
-        </is>
-      </c>
-      <c r="O50" s="2" t="inlineStr">
-        <is>
-          <t>IRAC AMDT 03/23                                                                                                                                                  AIS-ESPAÑA</t>
-        </is>
-      </c>
-      <c r="P50" s="2" t="inlineStr"/>
-      <c r="Q50" s="2" t="inlineStr"/>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
-      <c r="W50" s="2" t="inlineStr"/>
-      <c r="X50" s="2" t="inlineStr"/>
-      <c r="Y50" s="2" t="inlineStr"/>
-      <c r="Z50" s="2" t="inlineStr"/>
-      <c r="AA50" s="2" t="b">
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>FL080</t>
+        </is>
+      </c>
+      <c r="X50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z50" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA50" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LESBA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>LESBA</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>RULOS</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>RULOS</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="X52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z52" s="2" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA52" s="2" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>RNAV1</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_4_en</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>IRAC AMDT 03/23                                                                                                                                                  AIS-ESPAÑA</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>LE_AD_2_LEBL_TRAN_5_en</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>IRAC AMDT 02/23                                                                                                                                                  AIS-ESPAÑA</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
+      <c r="T54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
+      <c r="W54" s="2" t="inlineStr"/>
+      <c r="X54" s="2" t="inlineStr"/>
+      <c r="Y54" s="2" t="inlineStr"/>
+      <c r="Z54" s="2" t="inlineStr"/>
+      <c r="AA54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AB50" s="2" t="inlineStr"/>
+      <c r="AB54" s="2" t="inlineStr">
+        <is>
+          <t>Path Terminator-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
